--- a/TEST/spider/forls/OpenMarketOperationRecord.xlsx
+++ b/TEST/spider/forls/OpenMarketOperationRecord.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12650" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>时间</t>
   </si>
@@ -24,76 +24,30 @@
   <si>
     <t>央行表述</t>
   </si>
-  <si>
-    <t>2019-07-17</t>
-  </si>
-  <si>
-    <t>公开市场业务交易公告 [2019]第138号</t>
-  </si>
-  <si>
-    <t>为对冲税期、政府债券发行缴款等因素的影响，2019年7月17日人民银行以利率招标方式开展了1000亿元逆回购操作。具体情况如下：逆回购操作情况:期限为7天，中标量为1000亿元,中标利率为2.55%。</t>
-  </si>
-  <si>
-    <t>2019-07-16</t>
-  </si>
-  <si>
-    <t>公开市场业务交易公告 [2019]第137号</t>
-  </si>
-  <si>
-    <t>为对冲税期高峰等因素的影响，2019年7月16日人民银行以利率招标方式开展了1600亿元逆回购操作。具体情况如下：逆回购操作情况:期限为7天，中标量为1600亿元,中标利率为2.55%。</t>
-  </si>
-  <si>
-    <t>2019-07-15</t>
-  </si>
-  <si>
-    <t>公开市场业务交易公告 [2019]第136号</t>
-  </si>
-  <si>
-    <t>从2019年5月15日开始，人民银行对服务县域的农村商业银行实行较低存款准备金率，分三次实施到位。今日为实施该政策的第三次存款准备金率调整，释放长期资金约1000亿元。同时，为对冲税期等因素的影响，维护银行体系流动性合理充裕，2019年7月15日，人民银行在对当日到期的1885亿元中期借贷便利（MLF）等量续做的基础上，对中小银行开展增量操作，总操作量2000亿元。今日不开展逆回购操作。MLF操作情况:期限为1年，操作量为2000亿元,操作量为3.30%。</t>
-  </si>
-  <si>
-    <t>2019-07-12</t>
-  </si>
-  <si>
-    <t>公开市场业务交易公告 [2019]第135号</t>
-  </si>
-  <si>
-    <t>受央行逆回购到期和税期等因素影响，银行体系流动性总量有所下降，但仍处于合理充裕水平，2019年7月12日不开展逆回购操作。</t>
-  </si>
-  <si>
-    <t>2019-07-11</t>
-  </si>
-  <si>
-    <t>公开市场业务交易公告 [2019]第134号</t>
-  </si>
-  <si>
-    <t>受央行逆回购到期和税期等因素影响，银行体系流动性总量有所下降，但仍处于合理充裕水平，2019年7月11日不开展逆回购操作。</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -109,15 +63,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -164,7 +124,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -199,7 +159,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -376,29 +336,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="11.08203125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="33.25"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="255.58203125"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -412,107 +368,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TEST/spider/forls/OpenMarketOperationRecord.xlsx
+++ b/TEST/spider/forls/OpenMarketOperationRecord.xlsx
@@ -336,7 +336,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -346,15 +346,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
